--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2530011.886126421</v>
+        <v>-2530752.348947145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406076</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E11" t="n">
         <v>250.2137690395492</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>93.53488351116729</v>
       </c>
       <c r="H11" t="n">
         <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642681</v>
+        <v>59.42064602642684</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874615</v>
+        <v>65.87283976874618</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247076</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>154.6674975508406</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y11" t="n">
         <v>254.521337623341</v>
@@ -1452,19 +1452,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192616</v>
+        <v>15.72846453192619</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268838</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067129</v>
+        <v>19.65885545603226</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3585266371151</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.98135294622709</v>
+        <v>34.98135294622712</v>
       </c>
       <c r="T12" t="n">
-        <v>199.0829306929842</v>
+        <v>67.36632966027165</v>
       </c>
       <c r="U12" t="n">
-        <v>94.2071238447502</v>
+        <v>94.20712384475023</v>
       </c>
       <c r="V12" t="n">
-        <v>217.0335969730034</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>119.978382128207</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076489</v>
+        <v>74.05638417076491</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459177</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922474</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591527</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549977</v>
+        <v>16.8988719854998</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385661</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021868</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028134</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304861</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755893001</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437367</v>
+        <v>35.4595793843737</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529494</v>
+        <v>88.37870840529497</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494639</v>
       </c>
       <c r="U13" t="n">
         <v>154.5901551200257</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632459</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938223</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089989</v>
       </c>
       <c r="G14" t="n">
         <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642681</v>
+        <v>59.42064602642685</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874615</v>
+        <v>65.87283976874618</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247073</v>
+        <v>89.18341408247076</v>
       </c>
       <c r="U14" t="n">
         <v>119.5889224048976</v>
       </c>
       <c r="V14" t="n">
-        <v>135.0010415111159</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>130.4008045585266</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715475</v>
+        <v>70.61016379332919</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560315</v>
+        <v>40.99189795560318</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192619</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067129</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>121.308137493406</v>
+        <v>5.358526637115128</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.6979539789397</v>
+        <v>34.98135294622712</v>
       </c>
       <c r="T15" t="n">
-        <v>199.0829306929842</v>
+        <v>67.36632966027165</v>
       </c>
       <c r="U15" t="n">
-        <v>94.2071238447502</v>
+        <v>94.20712384475023</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076489</v>
+        <v>74.05638417076491</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459177</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922474</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591527</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549977</v>
+        <v>16.8988719854998</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385661</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021868</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028134</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304861</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755893001</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437367</v>
+        <v>35.4595793843737</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529494</v>
+        <v>88.37870840529497</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494639</v>
       </c>
       <c r="U16" t="n">
         <v>154.5901551200257</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632459</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938223</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D17" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
         <v>169.4965565155935</v>
@@ -1859,7 +1859,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W17" t="n">
-        <v>111.8614794912951</v>
+        <v>111.8614794912955</v>
       </c>
       <c r="X17" t="n">
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1941,7 +1941,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>134.9605952213007</v>
+        <v>70.89642859186921</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662031</v>
+        <v>229.3601513350526</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771005</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W19" t="n">
-        <v>49.14350911047305</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D20" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E20" t="n">
         <v>144.5508808461439</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W20" t="n">
-        <v>111.8614794912953</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X20" t="n">
         <v>132.3516114523511</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36.69614460624874</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>54.92283982943753</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.6009042264949233</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.3601513350527</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771008</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047308</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D23" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E23" t="n">
         <v>144.5508808461439</v>
@@ -2333,7 +2333,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>95.82921828078777</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>94.47866221040827</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>14.31549393480168</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>31.81741139022002</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V25" t="n">
-        <v>14.75815409771008</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W25" t="n">
-        <v>49.14350911047308</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>180.4328844084322</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068742</v>
+        <v>41.09318678068743</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2634,19 +2634,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>114.6639929003323</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>7.601020176948964</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.6979539789397</v>
+        <v>16.6538937004877</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0829306929842</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237248774628</v>
+        <v>159.885134065923</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2697,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>55.7289249250255</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2792,10 +2792,10 @@
         <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
-        <v>215.2288314925556</v>
+        <v>215.2288314925555</v>
       </c>
       <c r="D29" t="n">
-        <v>204.638981342231</v>
+        <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
         <v>231.8863097938098</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068742</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300676</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591582</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
         <v>177.7081981916829</v>
@@ -2855,7 +2855,7 @@
         <v>199.196908438961</v>
       </c>
       <c r="X29" t="n">
-        <v>219.6870404000171</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
         <v>236.1938783776016</v>
@@ -2874,10 +2874,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>7.601020176948964</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>166.6979539789397</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T30" t="n">
-        <v>199.0829306929842</v>
+        <v>133.0443398814445</v>
       </c>
       <c r="U30" t="n">
-        <v>75.87966459901081</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>249.6073152891343</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454193</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863428</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955555</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U31" t="n">
-        <v>136.2626958742863</v>
+        <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
         <v>102.093583045376</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="32">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.4945928383276</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6979539789397</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T33" t="n">
-        <v>49.0388704145322</v>
+        <v>133.0443398814445</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237248774628</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>101.6509228824676</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C35" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D35" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E35" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F35" t="n">
         <v>169.4965565155935</v>
@@ -3281,7 +3281,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W35" t="n">
         <v>111.8614794912951</v>
@@ -3332,7 +3332,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>33.0141538431112</v>
+        <v>8.225289365936918</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V37" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W37" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X37" t="n">
-        <v>31.81741139021991</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373625</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448895</v>
       </c>
       <c r="D38" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945649</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461437</v>
       </c>
       <c r="F38" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155934</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770415</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149209</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401687</v>
       </c>
       <c r="W38" t="n">
-        <v>111.8614794912951</v>
+        <v>111.861479491295</v>
       </c>
       <c r="X38" t="n">
-        <v>132.3516114523511</v>
+        <v>132.351611452351</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299355</v>
       </c>
     </row>
     <row r="39">
@@ -3582,22 +3582,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>93.71083266258903</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>184.2586815749442</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662022</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771008</v>
+        <v>14.75815409770996</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047296</v>
       </c>
       <c r="X40" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>180.4328844084326</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8338265482978</v>
+        <v>161.8338265482963</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558248</v>
+        <v>144.3728766558233</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265055002</v>
+        <v>133.7830265054987</v>
       </c>
       <c r="E41" t="n">
-        <v>161.030354957079</v>
+        <v>161.0303549570775</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265287</v>
+        <v>185.9760306265272</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9011040221229</v>
+        <v>193.9011040221214</v>
       </c>
       <c r="H41" t="n">
-        <v>113.4375877886394</v>
+        <v>113.437587788638</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.38680211548126e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242736</v>
+        <v>30.40550832242591</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549521</v>
+        <v>106.8522433549507</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022302</v>
+        <v>128.3409536022288</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632863</v>
+        <v>148.8310855632848</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3379235408708</v>
+        <v>165.3379235408694</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.93976210066545</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9237248774628</v>
+        <v>209.650244260193</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>11.90057203424104</v>
       </c>
       <c r="W42" t="n">
-        <v>30.79496804573682</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>120.1006484493036</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352476165</v>
+        <v>6.084173352474715</v>
       </c>
       <c r="U43" t="n">
-        <v>185.5073894868518</v>
+        <v>65.40674103755403</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864522</v>
+        <v>31.23762820864377</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140822</v>
+        <v>65.62298322140677</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385437</v>
+        <v>4.809640273852921</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8338265482978</v>
+        <v>161.8338265482964</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558248</v>
+        <v>144.3728766558233</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265055002</v>
+        <v>133.7830265054988</v>
       </c>
       <c r="E44" t="n">
-        <v>161.030354957079</v>
+        <v>161.0303549570776</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265287</v>
+        <v>185.9760306265272</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9011040221229</v>
+        <v>193.9011040221215</v>
       </c>
       <c r="H44" t="n">
-        <v>113.4375877886394</v>
+        <v>113.437587788638</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>-8.819611707622244e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242735</v>
+        <v>30.40550832242594</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8522433549521</v>
+        <v>106.8522433549507</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3409536022302</v>
+        <v>128.3409536022288</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632863</v>
+        <v>148.8310855632848</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3379235408708</v>
+        <v>165.3379235408694</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>57.202161185471</v>
       </c>
       <c r="W45" t="n">
-        <v>68.19036846089736</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.1006484492963</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352476165</v>
+        <v>6.084173352474743</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755548</v>
+        <v>65.40674103755406</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864522</v>
+        <v>31.2376282086438</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140822</v>
+        <v>108.2725691514025</v>
       </c>
       <c r="X46" t="n">
-        <v>4.80964027385437</v>
+        <v>4.809640273852949</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>547.8636211517983</v>
+        <v>867.5619283226447</v>
       </c>
       <c r="C11" t="n">
-        <v>547.8636211517983</v>
+        <v>867.5619283226447</v>
       </c>
       <c r="D11" t="n">
-        <v>547.8636211517983</v>
+        <v>642.3433014661089</v>
       </c>
       <c r="E11" t="n">
-        <v>295.1224403037687</v>
+        <v>389.6021206180792</v>
       </c>
       <c r="F11" t="n">
-        <v>295.1224403037687</v>
+        <v>389.6021206180792</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037687</v>
+        <v>295.1224403037688</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608223</v>
+        <v>90.45476164608235</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550282</v>
+        <v>485.3806706550285</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5057,34 +5057,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
         <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1455.157131708067</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1455.157131708067</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="V11" t="n">
-        <v>1298.927336202167</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="W11" t="n">
-        <v>1298.927336202167</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="X11" t="n">
-        <v>1058.508649691302</v>
+        <v>1124.654188548242</v>
       </c>
       <c r="Y11" t="n">
-        <v>801.4163894657052</v>
+        <v>867.5619283226447</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>398.9118686632564</v>
+        <v>516.0326877100147</v>
       </c>
       <c r="C12" t="n">
-        <v>224.4588393821294</v>
+        <v>341.5796584288877</v>
       </c>
       <c r="D12" t="n">
-        <v>208.5715014710929</v>
+        <v>325.6923205178511</v>
       </c>
       <c r="E12" t="n">
-        <v>49.33404646563741</v>
+        <v>299.5019372626103</v>
       </c>
       <c r="F12" t="n">
-        <v>35.84656024273712</v>
+        <v>279.6445075090423</v>
       </c>
       <c r="G12" t="n">
-        <v>30.43390707393399</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H12" t="n">
         <v>30.43390707393399</v>
@@ -5121,49 +5121,49 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K12" t="n">
-        <v>54.79813383722129</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L12" t="n">
-        <v>342.4531504565508</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M12" t="n">
-        <v>719.0727504964839</v>
+        <v>729.7925734439823</v>
       </c>
       <c r="N12" t="n">
-        <v>1095.692350536417</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O12" t="n">
-        <v>1407.663885668929</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P12" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1486.360653751015</v>
+        <v>1486.360653751016</v>
       </c>
       <c r="T12" t="n">
-        <v>1285.266784364163</v>
+        <v>1418.313856114378</v>
       </c>
       <c r="U12" t="n">
-        <v>1190.10807340987</v>
+        <v>1323.155145160084</v>
       </c>
       <c r="V12" t="n">
-        <v>970.8822178815833</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W12" t="n">
-        <v>716.6448611533817</v>
+        <v>966.8127519503548</v>
       </c>
       <c r="X12" t="n">
-        <v>641.8404326980636</v>
+        <v>892.0083234950367</v>
       </c>
       <c r="Y12" t="n">
-        <v>567.1272056833245</v>
+        <v>684.2480247300828</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858028</v>
+        <v>194.451641485803</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081108</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459898</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138114</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661158</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946796</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184305</v>
+        <v>47.5725409718431</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220475</v>
+        <v>84.15679020220472</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701334</v>
+        <v>218.3899330701333</v>
       </c>
       <c r="L13" t="n">
-        <v>278.822193815976</v>
+        <v>409.2216288383613</v>
       </c>
       <c r="M13" t="n">
-        <v>468.417339459572</v>
+        <v>483.3280976611674</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341124</v>
+        <v>691.5065317357078</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624647</v>
+        <v>862.8204075624652</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206715</v>
       </c>
       <c r="Q13" t="n">
         <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856995</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877739</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493641</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936916</v>
+        <v>582.111119393692</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069461</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591434</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658278</v>
+        <v>243.053034565828</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>854.3585270320548</v>
+        <v>859.005231024569</v>
       </c>
       <c r="C14" t="n">
-        <v>854.3585270320548</v>
+        <v>859.005231024569</v>
       </c>
       <c r="D14" t="n">
-        <v>629.139900175519</v>
+        <v>859.005231024569</v>
       </c>
       <c r="E14" t="n">
-        <v>376.3987193274895</v>
+        <v>859.005231024569</v>
       </c>
       <c r="F14" t="n">
-        <v>376.3987193274895</v>
+        <v>581.0663979851761</v>
       </c>
       <c r="G14" t="n">
-        <v>90.45476164608229</v>
+        <v>295.1224403037688</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608229</v>
+        <v>90.45476164608235</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
@@ -5297,10 +5297,10 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S14" t="n">
         <v>1455.157131708067</v>
@@ -5312,16 +5312,16 @@
         <v>1244.275983741028</v>
       </c>
       <c r="V14" t="n">
-        <v>1107.911295345962</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="W14" t="n">
-        <v>1107.911295345962</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="X14" t="n">
-        <v>1107.911295345962</v>
+        <v>1244.275983741028</v>
       </c>
       <c r="Y14" t="n">
-        <v>1107.911295345962</v>
+        <v>1112.557999338476</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>516.0326877100149</v>
+        <v>479.8775552088285</v>
       </c>
       <c r="C15" t="n">
-        <v>474.6267301791027</v>
+        <v>438.4715976779162</v>
       </c>
       <c r="D15" t="n">
-        <v>325.6923205178514</v>
+        <v>422.5842597668797</v>
       </c>
       <c r="E15" t="n">
-        <v>166.4548655123959</v>
+        <v>263.3468047614242</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9673792894956</v>
+        <v>116.8122467883091</v>
       </c>
       <c r="G15" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393399</v>
@@ -5358,16 +5358,16 @@
         <v>54.79813383722129</v>
       </c>
       <c r="K15" t="n">
-        <v>119.7913802412348</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7913802412348</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M15" t="n">
-        <v>496.410980281168</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211011</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="O15" t="n">
         <v>1185.002115453613</v>
@@ -5376,28 +5376,28 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S15" t="n">
-        <v>1353.313582000801</v>
+        <v>1486.360653751016</v>
       </c>
       <c r="T15" t="n">
-        <v>1152.219712613948</v>
+        <v>1418.313856114378</v>
       </c>
       <c r="U15" t="n">
-        <v>1057.061001659655</v>
+        <v>1323.155145160084</v>
       </c>
       <c r="V15" t="n">
-        <v>954.955965178127</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W15" t="n">
-        <v>700.7186084499253</v>
+        <v>833.7656802001402</v>
       </c>
       <c r="X15" t="n">
-        <v>625.9141799946073</v>
+        <v>758.9612517448221</v>
       </c>
       <c r="Y15" t="n">
         <v>551.2009529798681</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858028</v>
+        <v>194.451641485803</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081108</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459898</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138114</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661158</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946796</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184305</v>
+        <v>47.5725409718431</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220475</v>
+        <v>84.15679020220472</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701334</v>
+        <v>203.4791748685385</v>
       </c>
       <c r="L16" t="n">
-        <v>327.6634469788891</v>
+        <v>263.911435614381</v>
       </c>
       <c r="M16" t="n">
-        <v>532.1693508240807</v>
+        <v>468.4173394595726</v>
       </c>
       <c r="N16" t="n">
-        <v>740.3477848986211</v>
+        <v>676.5957735341129</v>
       </c>
       <c r="O16" t="n">
-        <v>926.5724189269733</v>
+        <v>862.8204075624652</v>
       </c>
       <c r="P16" t="n">
-        <v>1081.219273571223</v>
+        <v>1017.467262206715</v>
       </c>
       <c r="Q16" t="n">
         <v>1081.219273571223</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617311</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856995</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877739</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493641</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936916</v>
+        <v>582.111119393692</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069461</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591434</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658278</v>
+        <v>243.053034565828</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693742</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243302</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393399</v>
@@ -5516,7 +5516,7 @@
         <v>60.75260108020954</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L17" t="n">
         <v>485.3806706550282</v>
@@ -5534,16 +5534,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
         <v>1507.62865247297</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>585.4165204876128</v>
+        <v>989.7696459755631</v>
       </c>
       <c r="C18" t="n">
-        <v>585.4165204876128</v>
+        <v>815.3166166944361</v>
       </c>
       <c r="D18" t="n">
-        <v>585.4165204876128</v>
+        <v>666.3822070331848</v>
       </c>
       <c r="E18" t="n">
-        <v>426.1790654821574</v>
+        <v>507.1447520277294</v>
       </c>
       <c r="F18" t="n">
-        <v>279.6445075090423</v>
+        <v>360.6101940546143</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1847825900245</v>
+        <v>222.1504691355965</v>
       </c>
       <c r="H18" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J18" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K18" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L18" t="n">
-        <v>486.3521110234743</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M18" t="n">
-        <v>496.410980281168</v>
+        <v>729.7925734439823</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211011</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O18" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P18" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1353.313582000801</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T18" t="n">
-        <v>1353.313582000801</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U18" t="n">
-        <v>1125.107799296293</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="V18" t="n">
-        <v>889.9556910645504</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="W18" t="n">
-        <v>753.6318575076809</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="X18" t="n">
-        <v>753.6318575076809</v>
+        <v>1365.745281760585</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.6318575076809</v>
+        <v>1157.984982995631</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L19" t="n">
         <v>94.69987566531978</v>
@@ -5689,28 +5689,28 @@
         <v>302.4105425462477</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X19" t="n">
         <v>30.43390707393399</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243299</v>
+        <v>307.5851632243301</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H20" t="n">
         <v>30.43390707393399</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.7526010802095</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L20" t="n">
         <v>485.3806706550282</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5768,19 +5768,19 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U20" t="n">
         <v>1507.62865247297</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>351.421494328176</v>
+        <v>798.0530839139007</v>
       </c>
       <c r="C21" t="n">
-        <v>176.968465047049</v>
+        <v>623.6000546327737</v>
       </c>
       <c r="D21" t="n">
-        <v>176.968465047049</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="E21" t="n">
-        <v>176.968465047049</v>
+        <v>315.4281899660669</v>
       </c>
       <c r="F21" t="n">
-        <v>30.43390707393399</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G21" t="n">
         <v>30.43390707393399</v>
@@ -5829,16 +5829,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K21" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L21" t="n">
-        <v>353.1729734040489</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M21" t="n">
-        <v>729.7925734439821</v>
+        <v>729.7925734439823</v>
       </c>
       <c r="N21" t="n">
         <v>1106.412173483915</v>
@@ -5850,31 +5850,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="U21" t="n">
-        <v>1293.489570992192</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="V21" t="n">
-        <v>1058.337462760449</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="W21" t="n">
-        <v>804.1001060322474</v>
+        <v>1381.880219904455</v>
       </c>
       <c r="X21" t="n">
-        <v>596.2486058267145</v>
+        <v>1174.028719698922</v>
       </c>
       <c r="Y21" t="n">
-        <v>388.4883070617606</v>
+        <v>966.2684209339686</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393399</v>
+        <v>31.04088104009048</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393399</v>
+        <v>31.04088104009048</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393399</v>
+        <v>31.04088104009048</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43390707393399</v>
+        <v>31.04088104009048</v>
       </c>
       <c r="F22" t="n">
-        <v>30.43390707393399</v>
+        <v>31.04088104009048</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43390707393399</v>
+        <v>31.04088104009048</v>
       </c>
       <c r="H22" t="n">
-        <v>30.43390707393399</v>
+        <v>31.04088104009048</v>
       </c>
       <c r="I22" t="n">
         <v>30.43390707393399</v>
@@ -5911,7 +5911,7 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947717</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L22" t="n">
         <v>94.69987566531978</v>
@@ -5926,34 +5926,34 @@
         <v>302.4105425462477</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765435</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633104</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703302</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703302</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.6893458703302</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.47848878109</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852419</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230551</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693744</v>
+        <v>478.793806169374</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243305</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H23" t="n">
         <v>30.43390707393399</v>
@@ -5987,16 +5987,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020954</v>
       </c>
       <c r="K23" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6005,7 +6005,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q23" t="n">
         <v>1521.6953536967</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>667.6440959753797</v>
+        <v>659.5933589948828</v>
       </c>
       <c r="C24" t="n">
-        <v>493.1910666942528</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D24" t="n">
-        <v>493.1910666942528</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E24" t="n">
-        <v>396.3938765116388</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F24" t="n">
-        <v>249.8593185385238</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G24" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H24" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I24" t="n">
         <v>30.43390707393399</v>
@@ -6078,13 +6078,13 @@
         <v>887.3359378266948</v>
       </c>
       <c r="N24" t="n">
-        <v>887.3359378266948</v>
+        <v>1263.955537866628</v>
       </c>
       <c r="O24" t="n">
-        <v>1199.307472959206</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="P24" t="n">
-        <v>1432.68906612202</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.6953536967</v>
@@ -6096,22 +6096,22 @@
         <v>1353.313582000801</v>
       </c>
       <c r="T24" t="n">
-        <v>1353.313582000801</v>
+        <v>1257.880589869075</v>
       </c>
       <c r="U24" t="n">
-        <v>1125.107799296293</v>
+        <v>1257.880589869075</v>
       </c>
       <c r="V24" t="n">
-        <v>889.9556910645506</v>
+        <v>1257.880589869075</v>
       </c>
       <c r="W24" t="n">
-        <v>875.4955961809126</v>
+        <v>1243.420494985437</v>
       </c>
       <c r="X24" t="n">
-        <v>667.6440959753797</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="Y24" t="n">
-        <v>667.6440959753797</v>
+        <v>827.8086960149508</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D25" t="n">
         <v>30.43390707393399</v>
@@ -6163,34 +6163,34 @@
         <v>302.4105425462477</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T25" t="n">
-        <v>294.519162784051</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U25" t="n">
-        <v>245.0976810399901</v>
+        <v>277.2364804240506</v>
       </c>
       <c r="V25" t="n">
-        <v>230.1904546786668</v>
+        <v>262.3292540627273</v>
       </c>
       <c r="W25" t="n">
-        <v>180.5505464862697</v>
+        <v>212.6893458703302</v>
       </c>
       <c r="X25" t="n">
-        <v>180.5505464862697</v>
+        <v>212.6893458703302</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>550.420823060186</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754852</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450501</v>
+        <v>96.83435691450502</v>
       </c>
       <c r="I26" t="n">
         <v>55.32608743906317</v>
@@ -6230,13 +6230,13 @@
         <v>548.9166880491196</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471597</v>
+        <v>955.9037100471596</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
         <v>2233.040522606063</v>
@@ -6245,7 +6245,7 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
@@ -6257,7 +6257,7 @@
         <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287608</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
         <v>2364.919526790958</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>466.2202352287073</v>
+        <v>684.485539360012</v>
       </c>
       <c r="C27" t="n">
-        <v>350.3980201778666</v>
+        <v>510.032510078885</v>
       </c>
       <c r="D27" t="n">
-        <v>201.4636105166153</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="E27" t="n">
-        <v>193.785812358081</v>
+        <v>201.8606454121782</v>
       </c>
       <c r="F27" t="n">
-        <v>193.785812358081</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G27" t="n">
         <v>55.32608743906317</v>
@@ -6330,25 +6330,25 @@
         <v>1985.558603119544</v>
       </c>
       <c r="S27" t="n">
-        <v>1817.176831423646</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T27" t="n">
-        <v>1616.082962036793</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U27" t="n">
-        <v>1387.877179332285</v>
+        <v>1757.702140310511</v>
       </c>
       <c r="V27" t="n">
-        <v>1152.725071100542</v>
+        <v>1522.550032078768</v>
       </c>
       <c r="W27" t="n">
-        <v>898.4877143723409</v>
+        <v>1268.312675350567</v>
       </c>
       <c r="X27" t="n">
-        <v>842.1958710137293</v>
+        <v>1060.461175145034</v>
       </c>
       <c r="Y27" t="n">
-        <v>634.4355722487753</v>
+        <v>852.70087638008</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.31497076534463</v>
+        <v>94.89788390030584</v>
       </c>
       <c r="C28" t="n">
-        <v>79.93844468435891</v>
+        <v>77.52135781932013</v>
       </c>
       <c r="D28" t="n">
-        <v>79.93844468435891</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992289</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="F28" t="n">
         <v>83.51244133992289</v>
@@ -6379,55 +6379,55 @@
         <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67269700900448</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67269700900448</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K28" t="n">
-        <v>146.0955543626465</v>
+        <v>59.15979528460635</v>
       </c>
       <c r="L28" t="n">
-        <v>206.5278151084891</v>
+        <v>119.5920560304489</v>
       </c>
       <c r="M28" t="n">
-        <v>429.1779036069627</v>
+        <v>211.5697734083797</v>
       </c>
       <c r="N28" t="n">
-        <v>655.500522334785</v>
+        <v>437.892392136202</v>
       </c>
       <c r="O28" t="n">
-        <v>711.3257213407519</v>
+        <v>642.2612108178364</v>
       </c>
       <c r="P28" t="n">
-        <v>735.5731409626159</v>
+        <v>815.0522501153679</v>
       </c>
       <c r="Q28" t="n">
-        <v>817.4693369804066</v>
+        <v>815.0522501153679</v>
       </c>
       <c r="R28" t="n">
-        <v>800.1641651232003</v>
+        <v>797.7470782581615</v>
       </c>
       <c r="S28" t="n">
-        <v>729.4053275882957</v>
+        <v>726.9882407232569</v>
       </c>
       <c r="T28" t="n">
-        <v>651.6880263870765</v>
+        <v>649.2709395220378</v>
       </c>
       <c r="U28" t="n">
-        <v>514.0489396453733</v>
+        <v>511.6318527803345</v>
       </c>
       <c r="V28" t="n">
-        <v>410.9241082864076</v>
+        <v>408.5070214213688</v>
       </c>
       <c r="W28" t="n">
-        <v>273.0665950963682</v>
+        <v>270.6495082313294</v>
       </c>
       <c r="X28" t="n">
-        <v>196.636701045272</v>
+        <v>194.2196141802332</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.4037787486631</v>
+        <v>124.9866918836243</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514024</v>
@@ -6455,7 +6455,7 @@
         <v>282.989450475485</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
@@ -6467,13 +6467,13 @@
         <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O29" t="n">
         <v>2233.040522606063</v>
@@ -6488,19 +6488,19 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
         <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
         <v>1941.804426953606</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>383.9914728518395</v>
+        <v>684.485539360012</v>
       </c>
       <c r="C30" t="n">
-        <v>209.5384435707125</v>
+        <v>510.032510078885</v>
       </c>
       <c r="D30" t="n">
-        <v>209.5384435707125</v>
+        <v>361.0981004176337</v>
       </c>
       <c r="E30" t="n">
         <v>201.8606454121782</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1901.221085316631</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S30" t="n">
-        <v>1732.839313620732</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T30" t="n">
-        <v>1531.745444233879</v>
+        <v>1834.348266168098</v>
       </c>
       <c r="U30" t="n">
-        <v>1455.099318376293</v>
+        <v>1606.14248346359</v>
       </c>
       <c r="V30" t="n">
-        <v>1219.94721014455</v>
+        <v>1370.990375231847</v>
       </c>
       <c r="W30" t="n">
-        <v>967.8186088423943</v>
+        <v>1268.312675350567</v>
       </c>
       <c r="X30" t="n">
-        <v>759.9671086368614</v>
+        <v>1060.461175145034</v>
       </c>
       <c r="Y30" t="n">
-        <v>552.2068098719076</v>
+        <v>852.70087638008</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.31497076534463</v>
+        <v>100.8889674209085</v>
       </c>
       <c r="C31" t="n">
-        <v>79.93844468435891</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="D31" t="n">
-        <v>79.93844468435891</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998155</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900448</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67269700900448</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K31" t="n">
-        <v>60.50640485454766</v>
+        <v>59.15979528460635</v>
       </c>
       <c r="L31" t="n">
-        <v>269.4822852760577</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M31" t="n">
-        <v>492.1323737745313</v>
+        <v>342.2421445289225</v>
       </c>
       <c r="N31" t="n">
-        <v>588.8530986769083</v>
+        <v>568.5647632567449</v>
       </c>
       <c r="O31" t="n">
-        <v>793.2219173585427</v>
+        <v>772.9335819383792</v>
       </c>
       <c r="P31" t="n">
-        <v>817.4693369804066</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="Q31" t="n">
-        <v>817.4693369804066</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="R31" t="n">
-        <v>800.1641651232003</v>
+        <v>803.738161778764</v>
       </c>
       <c r="S31" t="n">
-        <v>729.4053275882957</v>
+        <v>732.9793242438594</v>
       </c>
       <c r="T31" t="n">
-        <v>651.6880263870765</v>
+        <v>655.2620230426403</v>
       </c>
       <c r="U31" t="n">
-        <v>514.0489396453733</v>
+        <v>517.622936300937</v>
       </c>
       <c r="V31" t="n">
-        <v>410.9241082864076</v>
+        <v>414.4981049419714</v>
       </c>
       <c r="W31" t="n">
-        <v>273.0665950963682</v>
+        <v>276.640591751932</v>
       </c>
       <c r="X31" t="n">
-        <v>196.636701045272</v>
+        <v>200.2106977008359</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.4037787486631</v>
+        <v>130.977775404227</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>550.4208230601857</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754849</v>
+        <v>282.989450475485</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450497</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
-        <v>548.91668804912</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L32" t="n">
         <v>955.9037100471601</v>
@@ -6710,25 +6710,25 @@
         <v>1408.621956991901</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606062</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
         <v>2544.422757287607</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.485539360012</v>
+        <v>532.9258825130908</v>
       </c>
       <c r="C33" t="n">
         <v>510.032510078885</v>
@@ -6765,16 +6765,16 @@
         <v>201.8606454121782</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
         <v>79.69031420235046</v>
@@ -6804,25 +6804,25 @@
         <v>1985.558603119544</v>
       </c>
       <c r="S33" t="n">
-        <v>1817.176831423646</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T33" t="n">
-        <v>1767.642618883714</v>
+        <v>1834.348266168098</v>
       </c>
       <c r="U33" t="n">
-        <v>1539.436836179206</v>
+        <v>1606.14248346359</v>
       </c>
       <c r="V33" t="n">
-        <v>1304.284727947464</v>
+        <v>1370.990375231847</v>
       </c>
       <c r="W33" t="n">
-        <v>1201.607028066183</v>
+        <v>1116.753018503646</v>
       </c>
       <c r="X33" t="n">
-        <v>993.7555278606503</v>
+        <v>908.9015182981127</v>
       </c>
       <c r="Y33" t="n">
-        <v>785.9952290956965</v>
+        <v>701.1412195331588</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.3149707653445</v>
+        <v>100.8889674209085</v>
       </c>
       <c r="C34" t="n">
-        <v>79.93844468435881</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="D34" t="n">
-        <v>79.93844468435881</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992282</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G34" t="n">
-        <v>65.6115217999815</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>55.32608743906316</v>
+        <v>127.1931552206159</v>
       </c>
       <c r="K34" t="n">
-        <v>207.7034149602738</v>
+        <v>279.5704827418266</v>
       </c>
       <c r="L34" t="n">
-        <v>268.1356757061164</v>
+        <v>488.5463631633367</v>
       </c>
       <c r="M34" t="n">
-        <v>429.1779036069623</v>
+        <v>663.1917159559846</v>
       </c>
       <c r="N34" t="n">
-        <v>655.5005223347847</v>
+        <v>740.9707150081396</v>
       </c>
       <c r="O34" t="n">
-        <v>711.3257213407516</v>
+        <v>796.7959140141064</v>
       </c>
       <c r="P34" t="n">
-        <v>735.5731409626155</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="Q34" t="n">
-        <v>817.4693369804063</v>
+        <v>821.0433336359704</v>
       </c>
       <c r="R34" t="n">
-        <v>800.1641651232</v>
+        <v>803.738161778764</v>
       </c>
       <c r="S34" t="n">
-        <v>729.4053275882953</v>
+        <v>732.9793242438594</v>
       </c>
       <c r="T34" t="n">
-        <v>651.6880263870762</v>
+        <v>655.2620230426403</v>
       </c>
       <c r="U34" t="n">
-        <v>514.0489396453729</v>
+        <v>517.622936300937</v>
       </c>
       <c r="V34" t="n">
-        <v>410.9241082864073</v>
+        <v>414.4981049419714</v>
       </c>
       <c r="W34" t="n">
-        <v>273.066595096368</v>
+        <v>276.640591751932</v>
       </c>
       <c r="X34" t="n">
-        <v>196.6367010452718</v>
+        <v>200.2106977008359</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.403778748663</v>
+        <v>130.977775404227</v>
       </c>
     </row>
     <row r="35">
@@ -6914,37 +6914,37 @@
         <v>872.4784887810897</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E35" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F35" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I35" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020939</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6956,16 +6956,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U35" t="n">
         <v>1507.62865247297</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>831.4007140584574</v>
+        <v>667.9017320917887</v>
       </c>
       <c r="C36" t="n">
-        <v>656.9476847773304</v>
+        <v>493.4487028106618</v>
       </c>
       <c r="D36" t="n">
-        <v>508.0132751160792</v>
+        <v>344.5142931494105</v>
       </c>
       <c r="E36" t="n">
-        <v>348.7758201106237</v>
+        <v>185.276838143955</v>
       </c>
       <c r="F36" t="n">
-        <v>202.2412621375086</v>
+        <v>38.74228017083996</v>
       </c>
       <c r="G36" t="n">
-        <v>63.78153721849077</v>
+        <v>38.74228017083996</v>
       </c>
       <c r="H36" t="n">
-        <v>63.78153721849077</v>
+        <v>38.74228017083996</v>
       </c>
       <c r="I36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K36" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="L36" t="n">
         <v>318.0889236932636</v>
       </c>
       <c r="M36" t="n">
-        <v>694.7085237331967</v>
+        <v>599.7226253614405</v>
       </c>
       <c r="N36" t="n">
-        <v>1071.32812377313</v>
+        <v>976.3422254013735</v>
       </c>
       <c r="O36" t="n">
-        <v>1185.002115453613</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P36" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U36" t="n">
-        <v>1293.489570992192</v>
+        <v>1293.489570992191</v>
       </c>
       <c r="V36" t="n">
-        <v>1293.489570992192</v>
+        <v>1058.337462760449</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.25221426399</v>
+        <v>1043.877367876811</v>
       </c>
       <c r="X36" t="n">
-        <v>831.4007140584574</v>
+        <v>1043.877367876811</v>
       </c>
       <c r="Y36" t="n">
-        <v>831.4007140584574</v>
+        <v>836.1170691118568</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C37" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J37" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531978</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M37" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N37" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O37" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765429</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633101</v>
       </c>
       <c r="W37" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.5505464862697</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810908</v>
+        <v>872.47848878109</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852427</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230558</v>
+        <v>624.8047969230553</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693752</v>
+        <v>478.7938061693748</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243312</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372715</v>
       </c>
       <c r="H38" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J38" t="n">
         <v>60.75260108020956</v>
@@ -7196,28 +7196,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>477.0654966596587</v>
+        <v>448.4787527462002</v>
       </c>
       <c r="C39" t="n">
-        <v>477.0654966596587</v>
+        <v>274.0257234650732</v>
       </c>
       <c r="D39" t="n">
-        <v>328.1310869984074</v>
+        <v>125.0913138038219</v>
       </c>
       <c r="E39" t="n">
-        <v>168.8936319929519</v>
+        <v>125.0913138038219</v>
       </c>
       <c r="F39" t="n">
-        <v>168.8936319929519</v>
+        <v>125.0913138038219</v>
       </c>
       <c r="G39" t="n">
-        <v>30.43390707393401</v>
+        <v>125.0913138038219</v>
       </c>
       <c r="H39" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I39" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722131</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K39" t="n">
-        <v>208.7559636618392</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="L39" t="n">
-        <v>496.4109802811688</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M39" t="n">
-        <v>496.4109802811688</v>
+        <v>694.7085237331967</v>
       </c>
       <c r="N39" t="n">
-        <v>873.0305803211022</v>
+        <v>1071.32812377313</v>
       </c>
       <c r="O39" t="n">
-        <v>1185.002115453614</v>
+        <v>1383.299658905641</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616428</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T39" t="n">
-        <v>1335.575473317969</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U39" t="n">
-        <v>1107.369690613461</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="V39" t="n">
-        <v>1107.369690613461</v>
+        <v>1286.543245464956</v>
       </c>
       <c r="W39" t="n">
-        <v>853.1323338852595</v>
+        <v>1032.305888736755</v>
       </c>
       <c r="X39" t="n">
-        <v>645.2808336797267</v>
+        <v>824.4543885312221</v>
       </c>
       <c r="Y39" t="n">
-        <v>645.2808336797267</v>
+        <v>616.6940897662682</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="C40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="D40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="E40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="F40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="G40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="H40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="I40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="J40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
       <c r="K40" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947716</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531975</v>
       </c>
       <c r="M40" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N40" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O40" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P40" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q40" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R40" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="U40" t="n">
         <v>277.2364804240507</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627274</v>
+        <v>262.3292540627276</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703304</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="X40" t="n">
-        <v>30.43390707393401</v>
+        <v>212.6893458703306</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829068</v>
+        <v>976.4306445828977</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416696</v>
+        <v>830.5994560416619</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340935</v>
+        <v>695.4650858340876</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350239</v>
+        <v>532.8081616350196</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445909</v>
+        <v>344.9535852445882</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121437</v>
+        <v>149.0938842121419</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51046220341702</v>
+        <v>63.97560257890104</v>
       </c>
       <c r="J41" t="n">
-        <v>64.82915620969257</v>
+        <v>94.29429658517658</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0138234621386</v>
+        <v>260.4789638376226</v>
       </c>
       <c r="L41" t="n">
-        <v>489.4572257845113</v>
+        <v>518.9223661599954</v>
       </c>
       <c r="M41" t="n">
-        <v>793.6318530535852</v>
+        <v>823.0969934290692</v>
       </c>
       <c r="N41" t="n">
-        <v>1088.096346250842</v>
+        <v>1117.561486626326</v>
       </c>
       <c r="O41" t="n">
-        <v>1320.963179316412</v>
+        <v>1396.121636316119</v>
       </c>
       <c r="P41" t="n">
-        <v>1658.708983639831</v>
+        <v>1557.193707865456</v>
       </c>
       <c r="Q41" t="n">
-        <v>1702.445641600264</v>
+        <v>1600.930365825889</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600264</v>
+        <v>1702.445641600244</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170851</v>
+        <v>1725.523110170832</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170851</v>
+        <v>1725.523110170833</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501732</v>
+        <v>1694.810475501716</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557336</v>
+        <v>1586.878916557321</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686397</v>
+        <v>1457.241589686383</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824491</v>
+        <v>1306.907159824479</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247854</v>
+        <v>1139.899156247843</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>738.4274852783471</v>
+        <v>663.6699141243655</v>
       </c>
       <c r="C42" t="n">
-        <v>738.4274852783471</v>
+        <v>489.2168848432385</v>
       </c>
       <c r="D42" t="n">
-        <v>589.4930756170959</v>
+        <v>340.2824751819872</v>
       </c>
       <c r="E42" t="n">
-        <v>430.2556206116404</v>
+        <v>181.0450201765317</v>
       </c>
       <c r="F42" t="n">
-        <v>283.7210626385254</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="G42" t="n">
-        <v>145.2613377195075</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670432</v>
+        <v>58.87468896670396</v>
       </c>
       <c r="K42" t="n">
-        <v>227.1378762969151</v>
+        <v>227.1378762969148</v>
       </c>
       <c r="L42" t="n">
-        <v>514.7928929162447</v>
+        <v>514.7928929162443</v>
       </c>
       <c r="M42" t="n">
-        <v>902.4519511407073</v>
+        <v>902.451951140707</v>
       </c>
       <c r="N42" t="n">
-        <v>1316.0782045083</v>
+        <v>1316.078204508299</v>
       </c>
       <c r="O42" t="n">
         <v>1628.049739640811</v>
@@ -7509,31 +7509,31 @@
         <v>1628.049739640811</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170851</v>
+        <v>1725.523110170833</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170851</v>
+        <v>1725.523110170833</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170851</v>
+        <v>1725.523110170833</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.429240783998</v>
+        <v>1725.523110170833</v>
       </c>
       <c r="U42" t="n">
-        <v>1296.22345807949</v>
+        <v>1513.755186675688</v>
       </c>
       <c r="V42" t="n">
-        <v>1061.071349847748</v>
+        <v>1501.734406843122</v>
       </c>
       <c r="W42" t="n">
-        <v>1029.965321518721</v>
+        <v>1247.49705011492</v>
       </c>
       <c r="X42" t="n">
-        <v>1029.965321518721</v>
+        <v>1039.645549909387</v>
       </c>
       <c r="Y42" t="n">
-        <v>822.2050227537668</v>
+        <v>831.8852511444336</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341702</v>
+        <v>155.8242485158445</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341702</v>
+        <v>155.8242485158445</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="K43" t="n">
-        <v>38.3441700489602</v>
+        <v>38.34417004895984</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480281</v>
+        <v>98.77643079480244</v>
       </c>
       <c r="M43" t="n">
-        <v>172.8828996176089</v>
+        <v>172.8828996176085</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697634</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757306</v>
+        <v>306.4870976757303</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486288</v>
+        <v>324.5888876486299</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467582</v>
+        <v>258.5214724591814</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400459</v>
+        <v>226.9683126524705</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225982</v>
+        <v>160.6824710146859</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341702</v>
+        <v>155.8242485158445</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341702</v>
+        <v>155.8242485158445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829063</v>
+        <v>976.4306445828988</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416693</v>
+        <v>830.5994560416632</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340933</v>
+        <v>695.4650858340888</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350237</v>
+        <v>532.8081616350204</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445906</v>
+        <v>344.9535852445888</v>
       </c>
       <c r="G44" t="n">
-        <v>149.0938842121437</v>
+        <v>149.0938842121419</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341702</v>
+        <v>63.97560257890101</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969257</v>
+        <v>94.29429658517655</v>
       </c>
       <c r="K44" t="n">
-        <v>236.5648881050915</v>
+        <v>260.4789638376226</v>
       </c>
       <c r="L44" t="n">
-        <v>495.0082904274642</v>
+        <v>518.9223661599952</v>
       </c>
       <c r="M44" t="n">
-        <v>799.1829176965382</v>
+        <v>823.0969934290692</v>
       </c>
       <c r="N44" t="n">
-        <v>1093.647410893795</v>
+        <v>1117.561486626326</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.71438066108</v>
+        <v>1350.428319691896</v>
       </c>
       <c r="P44" t="n">
-        <v>1681.786452210418</v>
+        <v>1557.193707865457</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170851</v>
+        <v>1600.93036582589</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170851</v>
+        <v>1702.445641600245</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170851</v>
+        <v>1725.523110170833</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.52311017085</v>
+        <v>1725.523110170834</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501732</v>
+        <v>1694.810475501717</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.878916557336</v>
+        <v>1586.878916557322</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686396</v>
+        <v>1457.241589686384</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824491</v>
+        <v>1306.90715982448</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.899156247854</v>
+        <v>1139.899156247845</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>655.5950810702686</v>
+        <v>517.1353561512504</v>
       </c>
       <c r="C45" t="n">
-        <v>481.1420517891416</v>
+        <v>342.6823268701235</v>
       </c>
       <c r="D45" t="n">
-        <v>332.2076421278904</v>
+        <v>193.7479172088722</v>
       </c>
       <c r="E45" t="n">
-        <v>172.9701871224349</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="F45" t="n">
-        <v>172.9701871224349</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670432</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="K45" t="n">
-        <v>58.87468896670432</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="L45" t="n">
-        <v>346.5297055860339</v>
+        <v>275.5730252031796</v>
       </c>
       <c r="M45" t="n">
-        <v>734.1887638104965</v>
+        <v>663.2320834276422</v>
       </c>
       <c r="N45" t="n">
-        <v>1147.815017178089</v>
+        <v>1076.858336795235</v>
       </c>
       <c r="O45" t="n">
-        <v>1459.7865523106</v>
+        <v>1388.829871927746</v>
       </c>
       <c r="P45" t="n">
-        <v>1693.168145473415</v>
+        <v>1622.21146509056</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170851</v>
+        <v>1725.523110170833</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170851</v>
+        <v>1641.18559236792</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.141338474952</v>
+        <v>1641.18559236792</v>
       </c>
       <c r="T45" t="n">
-        <v>1356.0474690881</v>
+        <v>1641.18559236792</v>
       </c>
       <c r="U45" t="n">
-        <v>1127.841686383592</v>
+        <v>1412.979809663412</v>
       </c>
       <c r="V45" t="n">
-        <v>892.6895781518492</v>
+        <v>1355.199848870007</v>
       </c>
       <c r="W45" t="n">
-        <v>823.8104180903367</v>
+        <v>1100.962492141805</v>
       </c>
       <c r="X45" t="n">
-        <v>823.8104180903367</v>
+        <v>893.1109919362723</v>
       </c>
       <c r="Y45" t="n">
-        <v>823.8104180903367</v>
+        <v>685.3506931713184</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.8242485158376</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341702</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341702</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341702</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341702</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341702</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341702</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341702</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341702</v>
+        <v>34.51046220341666</v>
       </c>
       <c r="K46" t="n">
-        <v>38.3441700489602</v>
+        <v>38.34417004895984</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480281</v>
+        <v>98.77643079480244</v>
       </c>
       <c r="M46" t="n">
-        <v>172.8828996176089</v>
+        <v>172.8828996176085</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697634</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757306</v>
+        <v>306.4870976757303</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975943</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486288</v>
+        <v>324.5888876486299</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591788</v>
+        <v>258.5214724591814</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524664</v>
+        <v>226.9683126524705</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146803</v>
+        <v>117.6020811864073</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158376</v>
+        <v>112.7438586875659</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.8242485158376</v>
+        <v>112.7438586875659</v>
       </c>
     </row>
   </sheetData>
@@ -8699,7 +8699,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119841</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>94.50242152751717</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>295.4193843891494</v>
       </c>
       <c r="N12" t="n">
-        <v>441.9619164368269</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>93.55188963456742</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>160.1521653699551</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>80.27972245565155</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868387</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>441.9619164368268</v>
+        <v>362.2109847065086</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661686</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>84.29073146033424</v>
+        <v>295.4193843891494</v>
       </c>
       <c r="N18" t="n">
-        <v>441.9619164368268</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928329</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>236.3159638696962</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868387</v>
+        <v>295.4193843891494</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368268</v>
+        <v>441.961916436827</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119846</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9726,16 +9726,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>61.53807801265201</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>339.0828048298205</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.627431669593</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868388</v>
+        <v>358.6087439961759</v>
       </c>
       <c r="N36" t="n">
         <v>441.9619164368269</v>
       </c>
       <c r="O36" t="n">
-        <v>193.5617703352865</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K39" t="n">
-        <v>250.0153809463231</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>74.13025746266391</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368272</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>222.5174167492742</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11157,7 +11157,7 @@
         <v>82.72378564719551</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.1800407154118</v>
+        <v>204.1800407153939</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
         <v>94.50242152751717</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>323.7772608392505</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.4038732077315</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
         <v>233.556290738295</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>275.1594447089989</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>189.5496345934258</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247073</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>119.5889224048976</v>
       </c>
       <c r="V11" t="n">
-        <v>41.36815988658174</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>233.556290738295</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089989</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>61.03461592630647</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>217.5243676847005</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>238.0144996457565</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>124.1205330648144</v>
       </c>
     </row>
     <row r="15">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="C2" t="n">
         <v>184337.1762113336</v>
@@ -26332,22 +26332,22 @@
         <v>184734.3982194636</v>
       </c>
       <c r="I2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="J2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="K2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="L2" t="n">
         <v>184734.3982194637</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>184734.3982194637</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>184734.3982194637</v>
-      </c>
-      <c r="L2" t="n">
-        <v>184734.3982194636</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194636</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194638</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472429</v>
+        <v>84530.31055472427</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>116916.0581612105</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472432</v>
+        <v>84530.31055472427</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239515</v>
+        <v>87131.09894239518</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510439</v>
+        <v>34584.19673510447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,10 +26454,10 @@
         <v>386434.3043956759</v>
       </c>
       <c r="O4" t="n">
-        <v>385717.6584839226</v>
+        <v>385717.6584839227</v>
       </c>
       <c r="P4" t="n">
-        <v>385717.6584839226</v>
+        <v>385717.6584839228</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678312</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678312</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="H5" t="n">
         <v>45806.17671431451</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561135</v>
       </c>
       <c r="K5" t="n">
-        <v>57382.03161561135</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="L5" t="n">
         <v>57382.03161561136</v>
@@ -26506,10 +26506,10 @@
         <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368942</v>
+        <v>47518.94570368926</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368942</v>
+        <v>47518.94570368926</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290939.6737844868</v>
+        <v>-290944.0873623549</v>
       </c>
       <c r="C6" t="n">
-        <v>-290939.6737844869</v>
+        <v>-290944.087362355</v>
       </c>
       <c r="D6" t="n">
-        <v>-290939.6737844868</v>
+        <v>-290944.0873623549</v>
       </c>
       <c r="E6" t="n">
-        <v>-517263.4113674745</v>
+        <v>-517558.415247556</v>
       </c>
       <c r="F6" t="n">
-        <v>-198057.2664484842</v>
+        <v>-198352.2703285657</v>
       </c>
       <c r="G6" t="n">
-        <v>-332036.393445251</v>
+        <v>-332036.3934452509</v>
       </c>
       <c r="H6" t="n">
-        <v>-247506.0828905266</v>
+        <v>-247506.0828905267</v>
       </c>
       <c r="I6" t="n">
-        <v>-247506.0828905266</v>
+        <v>-247506.0828905267</v>
       </c>
       <c r="J6" t="n">
-        <v>-375376.630039306</v>
+        <v>-375376.6300393061</v>
       </c>
       <c r="K6" t="n">
-        <v>-258460.5718780954</v>
+        <v>-258460.5718780955</v>
       </c>
       <c r="L6" t="n">
-        <v>-342990.8824328198</v>
+        <v>-342990.8824328196</v>
       </c>
       <c r="M6" t="n">
         <v>-334637.1818329218</v>
@@ -26698,7 +26698,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="G2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H2" t="n">
         <v>237.3794892261179</v>
@@ -26716,16 +26716,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="N2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="P2" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="I4" t="n">
         <v>380.4238384241749</v>
@@ -26817,19 +26817,19 @@
         <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241751</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427127</v>
+        <v>431.3807775427082</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427127</v>
+        <v>431.3807775427082</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>44.38117208504664</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766586</v>
+        <v>87.33542894766595</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.9016979741115</v>
+        <v>27.90169797411284</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006028</v>
+        <v>69.2715838600601</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.9569391185376</v>
+        <v>50.95693911853346</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>44.38117208504664</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28175,16 +28175,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327126</v>
+        <v>125.4103569373516</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011626</v>
@@ -28220,22 +28220,22 @@
         <v>131.7166010327126</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="V12" t="n">
-        <v>15.76699017642187</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28275,16 +28275,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="M13" t="n">
-        <v>116.655229111909</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="O13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119097</v>
       </c>
       <c r="P13" t="n">
         <v>131.7166010327126</v>
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.7166010327126</v>
+        <v>95.92301985653815</v>
       </c>
       <c r="C15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15.7669901764217</v>
       </c>
       <c r="H15" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,16 +28454,16 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="V15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28509,10 +28509,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119096</v>
       </c>
       <c r="L16" t="n">
-        <v>49.33459915445769</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>131.7166010327126</v>
@@ -28527,7 +28527,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.32062995745123</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327126</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="18">
@@ -28643,10 +28643,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>116.7343879396189</v>
+        <v>180.7985545690504</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28767,7 +28767,7 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S19" t="n">
         <v>220.0953094380075</v>
@@ -28776,16 +28776,16 @@
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768565</v>
       </c>
       <c r="V19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
-        <v>45.27677098060471</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28877,22 +28877,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>129.8370390436186</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
@@ -28934,13 +28934,13 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>196.7721433314821</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28977,7 +28977,7 @@
         <v>160.2266402957612</v>
       </c>
       <c r="I22" t="n">
-        <v>148.6838485916426</v>
+        <v>148.0829443651477</v>
       </c>
       <c r="J22" t="n">
         <v>77.45106251930778</v>
@@ -29004,7 +29004,7 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S22" t="n">
         <v>220.0953094380075</v>
@@ -29013,7 +29013,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>56.94660481768554</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
         <v>237.3794892261179</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>61.81586217461317</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,13 +29168,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>104.6042684825759</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>237.3794892261179</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29199,7 +29199,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29241,13 +29241,13 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S25" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T25" t="n">
-        <v>195.1667770774389</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
         <v>237.3794892261179</v>
@@ -29262,7 +29262,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>38.15176894366257</v>
       </c>
     </row>
     <row r="26">
@@ -29305,7 +29305,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="M26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784527</v>
       </c>
       <c r="N26" t="n">
         <v>150.044060278452</v>
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>58.04450608798348</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
         <v>109.6433667609296</v>
@@ -29402,13 +29402,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>66.03859081153976</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
+        <v>146.4339626465692</v>
+      </c>
+      <c r="F28" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="F28" t="n">
-        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,31 +29451,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
         <v>77.45106251930778</v>
       </c>
       <c r="K28" t="n">
-        <v>86.45368637181704</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>150.044060278452</v>
+        <v>18.05176621729761</v>
       </c>
       <c r="N28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29594,10 +29594,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>66.03859081153973</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.087667871785328</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -29688,7 +29688,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="I31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
         <v>77.45106251930778</v>
@@ -29700,16 +29700,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="N31" t="n">
-        <v>19.13305641436575</v>
       </c>
       <c r="O31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>24.10336573305774</v>
       </c>
       <c r="Q31" t="n">
         <v>67.32062995745123</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.03859081153975</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T33" t="n">
-        <v>150.044060278452</v>
+        <v>66.03859081153973</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29928,19 +29928,19 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
-        <v>77.45106251930778</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K34" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>87.81389805862608</v>
+        <v>101.5544282523655</v>
       </c>
       <c r="N34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I35" t="n">
         <v>191.1372470591394</v>
@@ -30040,19 +30040,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>47.14187583700506</v>
+        <v>71.93074031417935</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30122,16 +30122,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30189,25 +30189,25 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S37" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>226.984188467659</v>
+        <v>46.55130405922657</v>
       </c>
       <c r="U37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W37" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X37" t="n">
-        <v>193.8922439988172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.3593325148271</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S38" t="n">
         <v>197.5894408014587</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="39">
@@ -30302,22 +30302,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6433667609296</v>
+        <v>15.93253409834055</v>
       </c>
       <c r="I39" t="n">
         <v>80.15602968011626</v>
@@ -30353,13 +30353,13 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>14.82424911804</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30426,7 +30426,7 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S40" t="n">
         <v>220.0953094380075</v>
@@ -30435,19 +30435,19 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X40" t="n">
-        <v>45.27677098060477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>38.15176894366215</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="I41" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30496,37 +30496,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>46.15486527699255</v>
       </c>
       <c r="P41" t="n">
-        <v>178.4583159334163</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.359332514826</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
     </row>
     <row r="42">
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.59342154920189</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
         <v>80.15602968011626</v>
@@ -30590,19 +30590,19 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>16.27348061726974</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="W42" t="n">
-        <v>220.9000151151828</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.51482456890876</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30663,25 +30663,25 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S43" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="U43" t="n">
-        <v>100.7993666658865</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="D44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="E44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.607136002982742</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>196.1617542441571</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>46.1548652769936</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.359332514826</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="S44" t="n">
-        <v>197.5894408014587</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="T44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="U44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="V44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="W44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>175.5984259639543</v>
       </c>
       <c r="W45" t="n">
-        <v>183.5046147000222</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>47.14617264933152</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30876,7 +30876,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45106251930778</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,25 +30900,25 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S46" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="U46" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="V46" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151828</v>
+        <v>178.2504291851885</v>
       </c>
       <c r="X46" t="n">
-        <v>220.9000151151828</v>
+        <v>220.9000151151842</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K11" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M11" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P11" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018442</v>
@@ -31844,19 +31844,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M12" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N12" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095294</v>
@@ -31865,7 +31865,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678408</v>
@@ -31917,25 +31917,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J13" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K13" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L13" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424315</v>
@@ -31944,13 +31944,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K14" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M14" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P14" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32029,7 +32029,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018442</v>
@@ -32081,19 +32081,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M15" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N15" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q15" t="n">
         <v>34.25968340095294</v>
@@ -32102,7 +32102,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H16" t="n">
         <v>2.000532211678408</v>
@@ -32154,25 +32154,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J16" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K16" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L16" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N16" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424315</v>
@@ -32181,13 +32181,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K17" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M17" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P17" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32266,7 +32266,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018442</v>
@@ -32318,19 +32318,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M18" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N18" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q18" t="n">
         <v>34.25968340095294</v>
@@ -32339,7 +32339,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H19" t="n">
         <v>2.000532211678408</v>
@@ -32391,25 +32391,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J19" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K19" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L19" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N19" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424315</v>
@@ -32418,13 +32418,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K20" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M20" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P20" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32503,7 +32503,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018442</v>
@@ -32555,19 +32555,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M21" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N21" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q21" t="n">
         <v>34.25968340095294</v>
@@ -32576,7 +32576,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H22" t="n">
         <v>2.000532211678408</v>
@@ -32628,25 +32628,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J22" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K22" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L22" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N22" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424315</v>
@@ -32655,13 +32655,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K23" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M23" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P23" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32740,7 +32740,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018442</v>
@@ -32792,19 +32792,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M24" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N24" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q24" t="n">
         <v>34.25968340095294</v>
@@ -32813,7 +32813,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H25" t="n">
         <v>2.000532211678408</v>
@@ -32865,25 +32865,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J25" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K25" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L25" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N25" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424315</v>
@@ -32892,13 +32892,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K26" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M26" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P26" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -32977,7 +32977,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018442</v>
@@ -33029,19 +33029,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M27" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N27" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q27" t="n">
         <v>34.25968340095294</v>
@@ -33050,7 +33050,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H28" t="n">
         <v>2.000532211678408</v>
@@ -33102,25 +33102,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J28" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K28" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L28" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N28" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424315</v>
@@ -33129,13 +33129,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K29" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M29" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P29" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
@@ -33214,7 +33214,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018442</v>
@@ -33266,19 +33266,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M30" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N30" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q30" t="n">
         <v>34.25968340095294</v>
@@ -33287,7 +33287,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H31" t="n">
         <v>2.000532211678408</v>
@@ -33339,25 +33339,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J31" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K31" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L31" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N31" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424315</v>
@@ -33366,13 +33366,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K32" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M32" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P32" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
@@ -33451,7 +33451,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018442</v>
@@ -33503,19 +33503,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M33" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N33" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q33" t="n">
         <v>34.25968340095294</v>
@@ -33524,7 +33524,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H34" t="n">
         <v>2.000532211678408</v>
@@ -33576,25 +33576,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J34" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K34" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L34" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N34" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424315</v>
@@ -33603,13 +33603,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K35" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M35" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P35" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
@@ -33688,7 +33688,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018442</v>
@@ -33740,19 +33740,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M36" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N36" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q36" t="n">
         <v>34.25968340095294</v>
@@ -33761,7 +33761,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H37" t="n">
         <v>2.000532211678408</v>
@@ -33813,25 +33813,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J37" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K37" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L37" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N37" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424315</v>
@@ -33840,13 +33840,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K38" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M38" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P38" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
@@ -33925,7 +33925,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018442</v>
@@ -33977,19 +33977,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M39" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N39" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q39" t="n">
         <v>34.25968340095294</v>
@@ -33998,7 +33998,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H40" t="n">
         <v>2.000532211678408</v>
@@ -34050,25 +34050,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J40" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K40" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L40" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N40" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q40" t="n">
         <v>18.84141329424315</v>
@@ -34077,13 +34077,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K41" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M41" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P41" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
@@ -34162,7 +34162,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018442</v>
@@ -34214,19 +34214,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M42" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N42" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q42" t="n">
         <v>34.25968340095294</v>
@@ -34235,7 +34235,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H43" t="n">
         <v>2.000532211678408</v>
@@ -34287,25 +34287,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J43" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K43" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L43" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N43" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424315</v>
@@ -34314,13 +34314,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944959</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126651</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K44" t="n">
         <v>63.80773872881181</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930718</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M44" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203778</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749706</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P44" t="n">
         <v>72.13334975483465</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
@@ -34399,7 +34399,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>2.592077475566877</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298812</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018442</v>
@@ -34451,19 +34451,19 @@
         <v>43.33901744684182</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422263</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M45" t="n">
         <v>68.00377645935441</v>
       </c>
       <c r="N45" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713473</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q45" t="n">
         <v>34.25968340095294</v>
@@ -34472,7 +34472,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898145</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H46" t="n">
         <v>2.000532211678408</v>
@@ -34524,25 +34524,25 @@
         <v>6.766626335615716</v>
       </c>
       <c r="J46" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K46" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L46" t="n">
-        <v>33.4526623617471</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N46" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424315</v>
@@ -34551,13 +34551,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225469</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M11" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N11" t="n">
         <v>297.438882017431</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241748</v>
+        <v>221.2891269264855</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>10.82810398737191</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>104.3551970507805</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340481</v>
+        <v>54.26553851340478</v>
       </c>
       <c r="K13" t="n">
         <v>135.5890331999279</v>
       </c>
       <c r="L13" t="n">
-        <v>61.04268762206324</v>
+        <v>192.7592886547758</v>
       </c>
       <c r="M13" t="n">
-        <v>191.5102481248444</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N13" t="n">
         <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377296</v>
+        <v>173.0443190169267</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851004</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526136</v>
+        <v>64.39597107526133</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M14" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N14" t="n">
         <v>297.438882017431</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427614</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>24.61033006392656</v>
       </c>
       <c r="K15" t="n">
-        <v>65.64974384243793</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241748</v>
+        <v>300.6729066938565</v>
       </c>
       <c r="O15" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>235.7389829927417</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340481</v>
+        <v>54.26553851340478</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>120.527661279125</v>
       </c>
       <c r="L16" t="n">
-        <v>110.3772867765209</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M16" t="n">
         <v>206.571620045648</v>
@@ -35820,10 +35820,10 @@
         <v>188.1056909377296</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851004</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.39597107526133</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M17" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N17" t="n">
         <v>297.438882017431</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427614</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
@@ -35969,16 +35969,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>10.16047399767033</v>
+        <v>221.2891269264855</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>104.3551970507805</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M19" t="n">
         <v>74.85501901293543</v>
@@ -36054,7 +36054,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P19" t="n">
         <v>24.49234305238787</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068234</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36127,7 +36127,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M20" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515903</v>
       </c>
       <c r="N20" t="n">
         <v>297.438882017431</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K21" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L21" t="n">
-        <v>156.0362414140446</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>380.4238384241748</v>
+        <v>221.2891269264855</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M22" t="n">
         <v>74.85501901293543</v>
@@ -36291,7 +36291,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P22" t="n">
         <v>24.49234305238787</v>
@@ -36364,10 +36364,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M23" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N23" t="n">
-        <v>297.438882017431</v>
+        <v>297.4388820174314</v>
       </c>
       <c r="O23" t="n">
         <v>235.2190232985557</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>380.4238384241749</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>260.3432483132037</v>
       </c>
       <c r="P24" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.90534098452441</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M25" t="n">
         <v>74.85501901293543</v>
@@ -36528,7 +36528,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P25" t="n">
         <v>24.49234305238787</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K26" t="n">
         <v>317.907360533448</v>
@@ -36601,7 +36601,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300425</v>
       </c>
       <c r="N26" t="n">
         <v>447.482942295883</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631882809</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.360211686809412</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>90.32611853903238</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8990792913874</v>
+        <v>92.90678523023304</v>
       </c>
       <c r="N28" t="n">
         <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>56.38908990501705</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P28" t="n">
-        <v>24.49234305238787</v>
+        <v>174.5364033308398</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100075</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362601</v>
+        <v>31.68472776362604</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882809</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809412</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L31" t="n">
         <v>211.0867479005152</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8990792913874</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N31" t="n">
-        <v>97.69770192159295</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O31" t="n">
-        <v>206.433150183469</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P31" t="n">
-        <v>24.49234305238787</v>
+        <v>48.59570878544561</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882837</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.59299775914423</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9164924456674</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206324</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
-        <v>162.6689170715615</v>
+        <v>176.4094472653009</v>
       </c>
       <c r="N34" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O34" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P34" t="n">
         <v>24.49234305238787</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100078</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M35" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N35" t="n">
         <v>297.438882017431</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241749</v>
+        <v>284.478486533512</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O36" t="n">
-        <v>114.8222138186696</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M37" t="n">
         <v>74.85501901293543</v>
@@ -37476,7 +37476,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O37" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P37" t="n">
         <v>24.49234305238787</v>
@@ -37549,7 +37549,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M38" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N38" t="n">
         <v>297.438882017431</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>155.512959418806</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241751</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>235.7389829927417</v>
+        <v>139.7936311020786</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M40" t="n">
         <v>74.85501901293543</v>
@@ -37713,7 +37713,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P40" t="n">
         <v>24.49234305238787</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.76276805604483</v>
       </c>
       <c r="J41" t="n">
         <v>30.62494344068237</v>
@@ -37786,28 +37786,28 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N41" t="n">
         <v>297.438882017431</v>
       </c>
       <c r="O41" t="n">
-        <v>235.2190232985557</v>
+        <v>281.3738885755482</v>
       </c>
       <c r="P41" t="n">
-        <v>341.157378104464</v>
+        <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.5406826003583</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372405</v>
+        <v>23.3105743137255</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>9.103828801926284e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>98.45795003034324</v>
+        <v>98.45795003032532</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M43" t="n">
         <v>74.85501901293543</v>
@@ -37950,7 +37950,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P43" t="n">
         <v>24.49234305238787</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.7627680560448</v>
       </c>
       <c r="J44" t="n">
         <v>30.62494344068237</v>
       </c>
       <c r="K44" t="n">
-        <v>173.4704362579787</v>
+        <v>167.863300254996</v>
       </c>
       <c r="L44" t="n">
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N44" t="n">
         <v>297.438882017431</v>
       </c>
       <c r="O44" t="n">
-        <v>431.3807775427127</v>
+        <v>235.2190232985557</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710478</v>
+        <v>208.8539274480414</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.5406826003582</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.31057431372547</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392656</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>243.4975383835989</v>
       </c>
       <c r="M45" t="n">
         <v>391.574806287336</v>
@@ -38114,7 +38114,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.68178252266297</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215337</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206324</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M46" t="n">
         <v>74.85501901293543</v>
@@ -38187,7 +38187,7 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501705</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P46" t="n">
         <v>24.49234305238787</v>
